--- a/data/05_input/zm.ca19a6.xlsx
+++ b/data/05_input/zm.ca19a6.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/3FD1637E-A2F8-4E22-81B0-A5B776631CA6/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/08_sra_list_x/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/7D57495D-3BDD-4F65-B28C-321DB7BF6519/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D689995C-0477-E84B-9D56-FA8D391C7129}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96D1973-1365-9842-8272-C05BA721B892}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6140" yWindow="16220" windowWidth="17280" windowHeight="11560" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="14400" yWindow="7560" windowWidth="16820" windowHeight="8720" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>SampleID</t>
   </si>
@@ -55,6 +55,21 @@
   </si>
   <si>
     <t>leaf</t>
+  </si>
+  <si>
+    <t>r0</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>s1</t>
   </si>
 </sst>
 </file>
@@ -406,11 +421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FFD014-A071-C843-B0EC-9B05A4E70C0E}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -418,7 +433,7 @@
     <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,22 +458,34 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
+      <c r="F2" t="s">
+        <v>13</v>
       </c>
       <c r="G2">
         <v>636294670</v>
       </c>
       <c r="H2">
         <v>252</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
